--- a/Procurement/Value_Leakage.xlsx
+++ b/Procurement/Value_Leakage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\Procurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C27CA-BB13-461D-9881-7A508AFB46A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC4500-9068-41DD-98FB-FA89114920DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1801"/>
+  <dimension ref="A1:G1801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -478,8 +478,9 @@
         <f>SUM(D2:D77)</f>
         <v>257440</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44927</v>
       </c>
@@ -499,8 +500,9 @@
         <f>SUM(B2:B77)</f>
         <v>23282</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44927</v>
       </c>
@@ -517,7 +519,7 @@
         <v>7.1098562628336763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44927</v>
       </c>
@@ -534,7 +536,7 @@
         <v>14.155597722960151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44927</v>
       </c>
@@ -551,7 +553,7 @@
         <v>7.2998872604284104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44928</v>
       </c>
@@ -568,7 +570,7 @@
         <v>11.708666256914571</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44928</v>
       </c>
@@ -585,7 +587,7 @@
         <v>15.02510621861723</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44929</v>
       </c>
@@ -602,7 +604,7 @@
         <v>8.5541852532143796</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44930</v>
       </c>
@@ -619,7 +621,7 @@
         <v>4.3838604143947659</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44930</v>
       </c>
@@ -636,7 +638,7 @@
         <v>5.3709055876685934</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44930</v>
       </c>
@@ -653,7 +655,7 @@
         <v>11.12656467315716</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44930</v>
       </c>
@@ -670,7 +672,7 @@
         <v>8.0713128038897892</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44930</v>
       </c>
@@ -687,7 +689,7 @@
         <v>13.232773397326021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44930</v>
       </c>
@@ -704,7 +706,7 @@
         <v>8.7197580645161299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44931</v>
       </c>
